--- a/RVD_Predictor_Analysis/results/ExcelFiles/Rhinovirus_Predictors.xlsx
+++ b/RVD_Predictor_Analysis/results/ExcelFiles/Rhinovirus_Predictors.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="269">
   <si>
     <t xml:space="preserve">ABCB1</t>
   </si>
@@ -218,21 +218,48 @@
     <t xml:space="preserve">ABCB4</t>
   </si>
   <si>
+    <t xml:space="preserve">AKAP9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CACNA1I</t>
+  </si>
+  <si>
     <t xml:space="preserve">CD1E</t>
   </si>
   <si>
     <t xml:space="preserve">CD244</t>
   </si>
   <si>
+    <t xml:space="preserve">CFH</t>
+  </si>
+  <si>
     <t xml:space="preserve">CHI3L1</t>
   </si>
   <si>
+    <t xml:space="preserve">DHRS9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DYNC1LI1</t>
+  </si>
+  <si>
     <t xml:space="preserve">EIF5A</t>
   </si>
   <si>
     <t xml:space="preserve">ERV3-2</t>
   </si>
   <si>
+    <t xml:space="preserve">FCGBP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRAMD1C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSTM1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HERC2</t>
+  </si>
+  <si>
     <t xml:space="preserve">HIST3H2A</t>
   </si>
   <si>
@@ -269,15 +296,27 @@
     <t xml:space="preserve">PRKD3</t>
   </si>
   <si>
+    <t xml:space="preserve">RPH3AL</t>
+  </si>
+  <si>
     <t xml:space="preserve">SCAND2P</t>
   </si>
   <si>
+    <t xml:space="preserve">SERPINE2</t>
+  </si>
+  <si>
     <t xml:space="preserve">STARD8</t>
   </si>
   <si>
+    <t xml:space="preserve">SUPT3H</t>
+  </si>
+  <si>
     <t xml:space="preserve">SUSD4</t>
   </si>
   <si>
+    <t xml:space="preserve">TRIM2</t>
+  </si>
+  <si>
     <t xml:space="preserve">ACP5</t>
   </si>
   <si>
@@ -296,12 +335,18 @@
     <t xml:space="preserve">ATP1B1</t>
   </si>
   <si>
+    <t xml:space="preserve">BIN1</t>
+  </si>
+  <si>
     <t xml:space="preserve">C3</t>
   </si>
   <si>
     <t xml:space="preserve">CBR3</t>
   </si>
   <si>
+    <t xml:space="preserve">CD36</t>
+  </si>
+  <si>
     <t xml:space="preserve">CDK1</t>
   </si>
   <si>
@@ -311,6 +356,9 @@
     <t xml:space="preserve">CDKN2C</t>
   </si>
   <si>
+    <t xml:space="preserve">CES1</t>
+  </si>
+  <si>
     <t xml:space="preserve">CHEK1</t>
   </si>
   <si>
@@ -320,6 +368,12 @@
     <t xml:space="preserve">CSAD</t>
   </si>
   <si>
+    <t xml:space="preserve">CTSB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CXCL6</t>
+  </si>
+  <si>
     <t xml:space="preserve">CYP27A1</t>
   </si>
   <si>
@@ -356,6 +410,9 @@
     <t xml:space="preserve">HTATIP2</t>
   </si>
   <si>
+    <t xml:space="preserve">IFI44L</t>
+  </si>
+  <si>
     <t xml:space="preserve">IFNAR2</t>
   </si>
   <si>
@@ -368,6 +425,9 @@
     <t xml:space="preserve">ITGB4</t>
   </si>
   <si>
+    <t xml:space="preserve">KIF11</t>
+  </si>
+  <si>
     <t xml:space="preserve">LCP2</t>
   </si>
   <si>
@@ -380,6 +440,9 @@
     <t xml:space="preserve">MAP7</t>
   </si>
   <si>
+    <t xml:space="preserve">MAST3</t>
+  </si>
+  <si>
     <t xml:space="preserve">ME1</t>
   </si>
   <si>
@@ -404,9 +467,15 @@
     <t xml:space="preserve">NR4A2</t>
   </si>
   <si>
+    <t xml:space="preserve">OAS1</t>
+  </si>
+  <si>
     <t xml:space="preserve">PAX4</t>
   </si>
   <si>
+    <t xml:space="preserve">PECAM1</t>
+  </si>
+  <si>
     <t xml:space="preserve">PLPP3</t>
   </si>
   <si>
@@ -416,6 +485,12 @@
     <t xml:space="preserve">PTPRD</t>
   </si>
   <si>
+    <t xml:space="preserve">PTPRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTTG1</t>
+  </si>
+  <si>
     <t xml:space="preserve">PYGM</t>
   </si>
   <si>
@@ -425,12 +500,18 @@
     <t xml:space="preserve">RYR2</t>
   </si>
   <si>
+    <t xml:space="preserve">SDC2</t>
+  </si>
+  <si>
     <t xml:space="preserve">SEC14L1</t>
   </si>
   <si>
     <t xml:space="preserve">SLC1A5</t>
   </si>
   <si>
+    <t xml:space="preserve">SLC22A18</t>
+  </si>
+  <si>
     <t xml:space="preserve">SLC23A2</t>
   </si>
   <si>
@@ -440,15 +521,30 @@
     <t xml:space="preserve">SPP1</t>
   </si>
   <si>
+    <t xml:space="preserve">STAT1</t>
+  </si>
+  <si>
     <t xml:space="preserve">SYNCRIP</t>
   </si>
   <si>
     <t xml:space="preserve">TIMM13</t>
   </si>
   <si>
+    <t xml:space="preserve">TLR6</t>
+  </si>
+  <si>
     <t xml:space="preserve">TMBIM6</t>
   </si>
   <si>
+    <t xml:space="preserve">TNFAIP6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOP2A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TPST1</t>
+  </si>
+  <si>
     <t xml:space="preserve">TSTA3</t>
   </si>
   <si>
@@ -458,6 +554,9 @@
     <t xml:space="preserve">GPX1</t>
   </si>
   <si>
+    <t xml:space="preserve">PPP4R1</t>
+  </si>
+  <si>
     <t xml:space="preserve">RAB20</t>
   </si>
   <si>
@@ -491,6 +590,12 @@
     <t xml:space="preserve">RNF24</t>
   </si>
   <si>
+    <t xml:space="preserve">TNFRSF10B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YME1L1</t>
+  </si>
+  <si>
     <t xml:space="preserve">ABLIM1</t>
   </si>
   <si>
@@ -641,9 +746,6 @@
     <t xml:space="preserve">TIMM17A</t>
   </si>
   <si>
-    <t xml:space="preserve">TNFAIP6</t>
-  </si>
-  <si>
     <t xml:space="preserve">TNS1</t>
   </si>
   <si>
@@ -662,6 +764,9 @@
     <t xml:space="preserve">CC2D1A</t>
   </si>
   <si>
+    <t xml:space="preserve">CD8A</t>
+  </si>
+  <si>
     <t xml:space="preserve">CDKN1C</t>
   </si>
   <si>
@@ -680,7 +785,16 @@
     <t xml:space="preserve">LPAR1</t>
   </si>
   <si>
+    <t xml:space="preserve">MGAM</t>
+  </si>
+  <si>
     <t xml:space="preserve">MPZL1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PADI4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERPINF1</t>
   </si>
   <si>
     <t xml:space="preserve">API5</t>
@@ -2191,6 +2305,196 @@
         <v>230</v>
       </c>
     </row>
+    <row r="232">
+      <c r="A232" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="s">
+        <v>268</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
